--- a/Fanduel Results.xlsx
+++ b/Fanduel Results.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="3240" yWindow="2520" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="fanduel entry history 20170120" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Entry Id</t>
   </si>
@@ -108,6 +108,42 @@
   </si>
   <si>
     <t>Winning Percentage</t>
+  </si>
+  <si>
+    <t>S1147091687</t>
+  </si>
+  <si>
+    <t>50/50 Contest ($2 - Top 50% Win) (Main)</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/entry/BMUMWPGJB</t>
+  </si>
+  <si>
+    <t>S1147091218</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/entry/DAJIYWCAD</t>
+  </si>
+  <si>
+    <t>S1147091098</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/entry/DJZPSNDRN</t>
+  </si>
+  <si>
+    <t>S1147090959</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/entry/ADMWSKSTV</t>
+  </si>
+  <si>
+    <t>S1147089913</t>
+  </si>
+  <si>
+    <t>NBA 50/50 Contest ($2_ Beginners Only) (Main)</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/entry/ADMWOVNCL</t>
   </si>
 </sst>
 </file>
@@ -424,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +516,7 @@
       </c>
       <c r="R1">
         <f>AVERAGE(F:F)</f>
-        <v>305.60000000000002</v>
+        <v>229.52857142857141</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -525,7 +561,7 @@
       </c>
       <c r="R2" s="2">
         <f>(COUNTIF(L:L, "&gt;0") / (COUNT(L:L)))</f>
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -570,11 +606,46 @@
       </c>
       <c r="R3">
         <f>SUM(K:K)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42755</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>199.1</v>
+      </c>
+      <c r="H4">
+        <v>99</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
       <c r="Q4" t="s">
         <v>24</v>
       </c>
@@ -584,20 +655,163 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C5" s="1"/>
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42755</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>199.1</v>
+      </c>
+      <c r="H5">
+        <v>98</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
       <c r="Q5" t="s">
         <v>25</v>
       </c>
       <c r="R5">
         <f>R4 - R3</f>
-        <v>4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42755</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>199.1</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42755</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>199.1</v>
+      </c>
+      <c r="H7">
+        <v>98</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42755</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>199.1</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
